--- a/one-room-results.xlsx
+++ b/one-room-results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Osoby</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>Zachránění</t>
+  </si>
+  <si>
+    <t>Čas na zachranění jednoho</t>
   </si>
 </sst>
 </file>
@@ -123,8 +126,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Čas</a:t>
+              <a:t>Doba</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> trvání</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -189,7 +197,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$AZ$9</c:f>
+              <c:f>Sheet1!$B$10:$AZ$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -737,7 +745,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$15:$AZ$15</c:f>
+              <c:f>Sheet1!$B$17:$AZ$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -901,6 +909,199 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-8376-4D78-9DF7-5F1B78EAC46F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Místnost 1-2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$AZ$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>636</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>694.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>764.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>820.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>829.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>877.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>892.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>932.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>958.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1003.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1068</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1077.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1091.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1131.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1180</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1181.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1200.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1202.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1230.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1274.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1257.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1278.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1299.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1335.7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1336.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1351.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1377.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1398.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1395.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1421.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1451.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1466.4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1486.9</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1492.7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1484.8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1489.1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1523</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1526.8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1576.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1558.8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1584.7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1583.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1623.3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1630.8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1624.7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1660.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1639.9</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1674.6</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1678.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9A36-46EC-B3D0-ABC306447F7C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -923,6 +1124,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Lidé</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -988,6 +1244,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Ticks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1204,7 +1515,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$10:$AZ$10</c:f>
+              <c:f>Sheet1!$B$11:$AZ$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -1752,7 +2063,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$16:$AZ$16</c:f>
+              <c:f>Sheet1!$B$18:$AZ$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -1916,6 +2227,199 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-F5F3-4C8A-8EBF-384A90C7B622}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Místnost 1-2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$25:$AZ$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>52.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>56.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>57.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>64.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>67.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>77.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>78.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>85.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>89.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>96.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>97.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>104.1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>105.7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>113.6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>117.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>123.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>125.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>129.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>134.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>139.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>146.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>148.1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>152.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>158.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>164.4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>166.9</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>173.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9989-4789-97C3-AA6E3FA1CCD6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1938,6 +2442,69 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Lidé</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42723017774558419"/>
+              <c:y val="0.91042004737053539"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2003,6 +2570,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Ušlapaní</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2192,9 +2814,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.6580927384076991E-2"/>
-          <c:y val="0.17171296296296298"/>
-          <c:w val="0.80057554843271428"/>
+          <c:x val="8.5316257306421686E-2"/>
+          <c:y val="0.15007173943419569"/>
+          <c:w val="0.75375543089573704"/>
           <c:h val="0.70841097987751533"/>
         </c:manualLayout>
       </c:layout>
@@ -2227,7 +2849,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$11:$AZ$11</c:f>
+              <c:f>Sheet1!$B$12:$AZ$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -2775,7 +3397,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$17:$AZ$17</c:f>
+              <c:f>Sheet1!$B$19:$AZ$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -2942,7 +3564,201 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Místnost 1-2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$26:$AZ$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.18181818</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.33333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.30769231</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.714285709999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.266666669999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.29411765</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.777777780000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.684210530000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.428571430000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27.272727270000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.086956520000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29.166666670000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33.555555560000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>34.857142860000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>36.068965519999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37.933333330000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37.354838710000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40.1875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41.212121209999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39.882352939999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44.34285714</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43.833333330000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44.864864859999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45.10526316</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45.69230769</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>48.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>46.926829269999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>46.47619048</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>48.418604649999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>48.045454550000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>50.488888889999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>50.956521739999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>52.553191490000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>52.333333330000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>52.938775509999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>53.88</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>54.117647060000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>53.73076923</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>55.283018869999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>54.851851850000003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>55.454545449999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>56.071428570000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>55.543859650000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>56.689655170000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>56.57627119</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>57.966666670000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D42C-4E59-A9BA-FBDD3F6759E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2961,6 +3777,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Lidé</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3026,6 +3897,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Ušlapaní</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> v %</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3238,7 +4169,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$12:$AZ$12</c:f>
+              <c:f>Sheet1!$B$13:$AZ$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -3786,7 +4717,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$18:$AZ$18</c:f>
+              <c:f>Sheet1!$B$20:$AZ$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -3950,6 +4881,199 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-6CFE-431D-9116-C4278789E89E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Místnost 1-2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$27:$AZ$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>45.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>77.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>78.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>82.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>86.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>87.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>89.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>91.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>92.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>93.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>97.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>95.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>102.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>97.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>101.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>104.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>105.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>108.8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>112.4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>110.9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>114.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>111.4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>112.8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>111.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>114.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>115.3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>115.3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>120.3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>118.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>121.9</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>122.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>126.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>125.6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>128.1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>126.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D0A6-4A9E-B97E-F43313E9984E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3972,6 +5096,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Lidé</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4037,6 +5216,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Zachránění</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4081,7 +5315,1321 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Průměrný čas na zachránění jednoho člověka</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Místnost 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$AZ$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>25.492924528301891</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.522776572668111</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.13807531380753</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.391836734693879</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.511764705882353</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.227611940298509</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.344522968197879</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.208121827411166</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.345955249569709</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.771144278606965</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.963934426229507</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.596546310832025</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25.165151515151518</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25.817764165390507</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26.233486943164365</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25.896296296296295</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26.112259970457902</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>26.02325581395349</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26.131693198263388</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25.855742296918763</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26.027855153203344</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26.137447405329592</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26.200549450549453</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.740053050397876</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25.576671035386632</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25.553410553410554</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>25.678663239074549</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>26.362433862433864</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>25.756281407035175</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>26.178707224334598</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>25.860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>26.026184538653368</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>25.690072639225182</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25.022222222222222</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>26.277777777777782</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>25.689376443418013</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>25.445086705202311</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>25.929398148148149</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25.899883585564609</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>25.393461104847802</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>25.933714285714284</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>25.848383500557411</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>26.003359462486003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>25.885300668151448</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>25.782894736842106</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>26.527149321266968</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>25.45628997867804</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>26.276548672566371</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>25.770943796394484</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>26.575858250276859</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2F5C-4A16-92EF-E187363B442A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Místnost 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$AZ$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$AZ$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>17.637999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.096363636363634</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.815384615384616</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.272857142857143</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.811999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.863579474342927</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.369411764705884</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.541713014460511</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.326271186440676</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.981927710843376</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.957446808510639</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.946345975948198</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.852888086642599</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.845884413309982</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.94458653026428</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.734156378600824</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.670111287758345</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.587177482408132</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.705972434915774</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.783232628398791</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.519385515727873</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.652548456568557</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.551797040169133</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.769607843137255</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11.660194174757283</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11.652892561983473</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.643908969210173</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.605737158105404</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.619295958279009</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11.641683103221565</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11.55</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11.545397620538511</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11.602748282323548</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11.827433628318584</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11.66056166056166</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11.68707899571341</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11.647302904564317</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11.562389118864578</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11.665488810365135</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11.560394889663183</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11.584948688711517</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11.713961407491487</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11.821448944666287</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11.652027027027028</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11.62388888888889</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11.606747787610619</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11.637713029136888</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>11.659028914348061</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>11.574786324786327</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>11.574706510138739</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2F5C-4A16-92EF-E187363B442A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Místnost 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$21:$AZ$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>17.166</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.645000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.653846153846153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.685714285714285</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.898666666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.19375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.634117647058824</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.7642105263157895</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.4429999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.2114285714285717</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.91</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.8973913043478259</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.9408333333333339</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.8934294871794872</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.8928296067848898</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.7529850746268671</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.8596237337192481</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.7115789473684213</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.5691166554281857</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.4249180327868842</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.5823190262652158</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.6047529706066292</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.5764705882352938</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.4991087344028529</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.4718768502072237</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.5164265129682999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.5207268597387849</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.5299097065462757</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.4696969696969688</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.4479222881813278</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.5655868295273496</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.5045188729399257</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.2719836400817996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.4114052953156815</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.3699999999999992</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.4119402985074618</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.3211322596388477</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.3265306122448965</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.5482940893801072</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.2871939736346523</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.367299675775822</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.3056970819823999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.3780657103192961</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.3961156278229456</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.4294038547736445</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.4692863595302619</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.5031390134529143</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.3421168203776901</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.3356582388840454</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2F5C-4A16-92EF-E187363B442A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Místnost 1-2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$28:$AZ$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>13.947368421052632</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.05263157894737</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.992395437262356</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.419298245614035</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.080617495711836</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.538336052202284</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.301515151515151</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.337817638266067</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.575070821529746</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.981888745148771</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.154533844189016</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.024183796856105</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.836470588235294</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.080924855491329</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.54764638346728</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.167224080267557</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.163377192982455</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.969795037756201</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.220193340494093</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.128733264675592</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13.135841170323928</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13.184536082474228</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.71624266144814</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13.713552361396303</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13.221562809099902</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.248039215686275</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13.209012464046022</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13.208687440982057</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13.551456310679612</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13.068933823529413</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12.916370106761565</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13.222723174030659</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13.008748906386703</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13.399461400359066</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13.163120567375886</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13.355156950672646</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13.312937062937062</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>13.241977450130095</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>13.672159583694711</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13.323076923076922</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>13.172901080631755</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13.362869198312236</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>13.316652994257588</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>13.31265306122449</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>13.208943089430894</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>13.104972375690608</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>13.056528662420384</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>13.072599531615925</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>13.312450436161777</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2F5C-4A16-92EF-E187363B442A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="361211752"/>
+        <c:axId val="361216672"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="361211752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Lidé</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="361216672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="361216672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Ticks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="361211752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4308,6 +6856,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
   <cs:axisTitle>
@@ -6316,20 +8904,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>155574</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>73024</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6356,16 +9446,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>60324</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>301626</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6392,16 +9482,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>530224</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>53974</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>73026</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6428,16 +9518,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>587374</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>479424</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>98424</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6457,6 +9547,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22224</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>136524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA8D8F3C-015B-41D7-A564-5FC9B210A79C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6728,15 +9854,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AZ18"/>
+  <dimension ref="A2:AZ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="X32" sqref="X32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.08984375" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:52" x14ac:dyDescent="0.35">
@@ -7529,1554 +10655,3180 @@
         <v>187.4</v>
       </c>
     </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <f>B3/B6</f>
+        <v>17.637999999999998</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:AZ7" si="0">C3/C6</f>
+        <v>16.096363636363634</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>14.78</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>13.815384615384616</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>13.272857142857143</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>12.811999999999999</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>12.863579474342927</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>12.369411764705884</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>12.541713014460511</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>12.326271186440676</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>11.981927710843376</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>11.957446808510639</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>11.946345975948198</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>11.852888086642599</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>11.845884413309982</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>11.94458653026428</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>11.734156378600824</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>11.670111287758345</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>11.587177482408132</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>11.705972434915774</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>11.783232628398791</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="0"/>
+        <v>11.519385515727873</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="0"/>
+        <v>11.652548456568557</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="0"/>
+        <v>11.551797040169133</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="0"/>
+        <v>11.769607843137255</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="0"/>
+        <v>11.660194174757283</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="0"/>
+        <v>11.652892561983473</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="0"/>
+        <v>11.643908969210173</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="0"/>
+        <v>11.605737158105404</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="0"/>
+        <v>11.619295958279009</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="0"/>
+        <v>11.641683103221565</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="0"/>
+        <v>11.55</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="0"/>
+        <v>11.545397620538511</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="0"/>
+        <v>11.602748282323548</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="0"/>
+        <v>11.827433628318584</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" si="0"/>
+        <v>11.66056166056166</v>
+      </c>
+      <c r="AL7">
+        <f t="shared" si="0"/>
+        <v>11.68707899571341</v>
+      </c>
+      <c r="AM7">
+        <f t="shared" si="0"/>
+        <v>11.647302904564317</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" si="0"/>
+        <v>11.562389118864578</v>
+      </c>
+      <c r="AO7">
+        <f t="shared" si="0"/>
+        <v>11.665488810365135</v>
+      </c>
+      <c r="AP7">
+        <f t="shared" si="0"/>
+        <v>11.560394889663183</v>
+      </c>
+      <c r="AQ7">
+        <f t="shared" si="0"/>
+        <v>11.584948688711517</v>
+      </c>
+      <c r="AR7">
+        <f t="shared" si="0"/>
+        <v>11.713961407491487</v>
+      </c>
+      <c r="AS7">
+        <f t="shared" si="0"/>
+        <v>11.821448944666287</v>
+      </c>
+      <c r="AT7">
+        <f t="shared" si="0"/>
+        <v>11.652027027027028</v>
+      </c>
+      <c r="AU7">
+        <f t="shared" si="0"/>
+        <v>11.62388888888889</v>
+      </c>
+      <c r="AV7">
+        <f t="shared" si="0"/>
+        <v>11.606747787610619</v>
+      </c>
+      <c r="AW7">
+        <f t="shared" si="0"/>
+        <v>11.637713029136888</v>
+      </c>
+      <c r="AX7">
+        <f t="shared" si="0"/>
+        <v>11.659028914348061</v>
+      </c>
+      <c r="AY7">
+        <f t="shared" si="0"/>
+        <v>11.574786324786327</v>
+      </c>
+      <c r="AZ7">
+        <f t="shared" si="0"/>
+        <v>11.574706510138739</v>
+      </c>
+    </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="B8">
-        <v>50</v>
-      </c>
-      <c r="C8">
-        <v>55</v>
-      </c>
-      <c r="D8">
-        <v>60</v>
-      </c>
-      <c r="E8">
-        <v>65</v>
-      </c>
-      <c r="F8">
-        <v>70</v>
-      </c>
-      <c r="G8">
-        <v>75</v>
-      </c>
-      <c r="H8">
-        <v>80</v>
-      </c>
-      <c r="I8">
-        <v>85</v>
-      </c>
-      <c r="J8">
-        <v>90</v>
-      </c>
-      <c r="K8">
-        <v>95</v>
-      </c>
-      <c r="L8">
-        <v>100</v>
-      </c>
-      <c r="M8">
-        <v>105</v>
-      </c>
-      <c r="N8">
-        <v>110</v>
-      </c>
-      <c r="O8">
-        <v>115</v>
-      </c>
-      <c r="P8">
-        <v>120</v>
-      </c>
-      <c r="Q8">
-        <v>125</v>
-      </c>
-      <c r="R8">
-        <v>130</v>
-      </c>
-      <c r="S8">
-        <v>135</v>
-      </c>
-      <c r="T8">
-        <v>140</v>
-      </c>
-      <c r="U8">
-        <v>145</v>
-      </c>
-      <c r="V8">
-        <v>150</v>
-      </c>
-      <c r="W8">
-        <v>155</v>
-      </c>
-      <c r="X8">
-        <v>160</v>
-      </c>
-      <c r="Y8">
-        <v>165</v>
-      </c>
-      <c r="Z8">
-        <v>170</v>
-      </c>
-      <c r="AA8">
-        <v>175</v>
-      </c>
-      <c r="AB8">
-        <v>180</v>
-      </c>
-      <c r="AC8">
-        <v>185</v>
-      </c>
-      <c r="AD8">
-        <v>190</v>
-      </c>
-      <c r="AE8">
-        <v>195</v>
-      </c>
-      <c r="AF8">
-        <v>200</v>
-      </c>
-      <c r="AG8">
-        <v>205</v>
-      </c>
-      <c r="AH8">
-        <v>210</v>
-      </c>
-      <c r="AI8">
-        <v>215</v>
-      </c>
-      <c r="AJ8">
-        <v>220</v>
-      </c>
-      <c r="AK8">
-        <v>225</v>
-      </c>
-      <c r="AL8">
-        <v>230</v>
-      </c>
-      <c r="AM8">
-        <v>235</v>
-      </c>
-      <c r="AN8">
-        <v>240</v>
-      </c>
-      <c r="AO8">
-        <v>245</v>
-      </c>
-      <c r="AP8">
-        <v>250</v>
-      </c>
-      <c r="AQ8">
-        <v>255</v>
-      </c>
-      <c r="AR8">
-        <v>260</v>
-      </c>
-      <c r="AS8">
-        <v>265</v>
-      </c>
-      <c r="AT8">
-        <v>270</v>
-      </c>
-      <c r="AU8">
-        <v>275</v>
-      </c>
-      <c r="AV8">
-        <v>280</v>
-      </c>
-      <c r="AW8">
-        <v>285</v>
-      </c>
-      <c r="AX8">
-        <v>290</v>
-      </c>
-      <c r="AY8">
-        <v>295</v>
-      </c>
-      <c r="AZ8">
-        <v>300</v>
+      <c r="A8">
+        <f>AVERAGE(AF7:AZ7)</f>
+        <v>11.638082692235255</v>
       </c>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.35">
       <c r="B9">
-        <v>1080.9000000000001</v>
+        <v>50</v>
       </c>
       <c r="C9">
-        <v>1130.5</v>
+        <v>55</v>
       </c>
       <c r="D9">
-        <v>1201.5999999999999</v>
+        <v>60</v>
       </c>
       <c r="E9">
-        <v>1244.2</v>
+        <v>65</v>
       </c>
       <c r="F9">
-        <v>1301.0999999999999</v>
+        <v>70</v>
       </c>
       <c r="G9">
-        <v>1352.2</v>
+        <v>75</v>
       </c>
       <c r="H9">
-        <v>1434.5</v>
+        <v>80</v>
       </c>
       <c r="I9">
-        <v>1443</v>
+        <v>85</v>
       </c>
       <c r="J9">
-        <v>1489.8</v>
+        <v>90</v>
       </c>
       <c r="K9">
-        <v>1530.7</v>
+        <v>95</v>
       </c>
       <c r="L9">
-        <v>1554</v>
+        <v>100</v>
       </c>
       <c r="M9">
-        <v>1583.8</v>
+        <v>105</v>
       </c>
       <c r="N9">
-        <v>1630.5</v>
+        <v>110</v>
       </c>
       <c r="O9">
-        <v>1660.9</v>
+        <v>115</v>
       </c>
       <c r="P9">
-        <v>1685.9</v>
+        <v>120</v>
       </c>
       <c r="Q9">
-        <v>1707.8</v>
+        <v>125</v>
       </c>
       <c r="R9">
-        <v>1748</v>
+        <v>130</v>
       </c>
       <c r="S9">
-        <v>1767.8</v>
+        <v>135</v>
       </c>
       <c r="T9">
-        <v>1790.4</v>
+        <v>140</v>
       </c>
       <c r="U9">
-        <v>1805.7</v>
+        <v>145</v>
       </c>
       <c r="V9">
-        <v>1846.1</v>
+        <v>150</v>
       </c>
       <c r="W9">
-        <v>1868.8</v>
+        <v>155</v>
       </c>
       <c r="X9">
-        <v>1863.6</v>
+        <v>160</v>
       </c>
       <c r="Y9">
-        <v>1907.4</v>
+        <v>165</v>
       </c>
       <c r="Z9">
-        <v>1940.8</v>
+        <v>170</v>
       </c>
       <c r="AA9">
-        <v>1951.5</v>
+        <v>175</v>
       </c>
       <c r="AB9">
-        <v>1985.5</v>
+        <v>180</v>
       </c>
       <c r="AC9">
-        <v>1997.8</v>
+        <v>185</v>
       </c>
       <c r="AD9">
-        <v>1993</v>
+        <v>190</v>
       </c>
       <c r="AE9">
-        <v>2050.1999999999998</v>
+        <v>195</v>
       </c>
       <c r="AF9">
-        <v>2065.5</v>
+        <v>200</v>
       </c>
       <c r="AG9">
-        <v>2068.8000000000002</v>
+        <v>205</v>
       </c>
       <c r="AH9">
-        <v>2087.3000000000002</v>
+        <v>210</v>
       </c>
       <c r="AI9">
-        <v>2122</v>
+        <v>215</v>
       </c>
       <c r="AJ9">
-        <v>2139.4</v>
+        <v>220</v>
       </c>
       <c r="AK9">
-        <v>2175.8000000000002</v>
+        <v>225</v>
       </c>
       <c r="AL9">
-        <v>2224.6999999999998</v>
+        <v>230</v>
       </c>
       <c r="AM9">
-        <v>2201</v>
+        <v>235</v>
       </c>
       <c r="AN9">
-        <v>2240.3000000000002</v>
+        <v>240</v>
       </c>
       <c r="AO9">
-        <v>2224.8000000000002</v>
+        <v>245</v>
       </c>
       <c r="AP9">
-        <v>2252.4</v>
+        <v>250</v>
       </c>
       <c r="AQ9">
-        <v>2269.1999999999998</v>
+        <v>255</v>
       </c>
       <c r="AR9">
-        <v>2318.6</v>
+        <v>260</v>
       </c>
       <c r="AS9">
-        <v>2322.1</v>
+        <v>265</v>
       </c>
       <c r="AT9">
-        <v>2324.5</v>
+        <v>270</v>
       </c>
       <c r="AU9">
-        <v>2351.4</v>
+        <v>275</v>
       </c>
       <c r="AV9">
-        <v>2345</v>
+        <v>280</v>
       </c>
       <c r="AW9">
-        <v>2387.8000000000002</v>
+        <v>285</v>
       </c>
       <c r="AX9">
-        <v>2375.4</v>
+        <v>290</v>
       </c>
       <c r="AY9">
-        <v>2430.1999999999998</v>
+        <v>295</v>
       </c>
       <c r="AZ9">
-        <v>2399.8000000000002</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.35">
       <c r="B10">
-        <v>7.6</v>
+        <v>1080.9000000000001</v>
       </c>
       <c r="C10">
-        <v>8.9</v>
+        <v>1130.5</v>
       </c>
       <c r="D10">
-        <v>12.2</v>
+        <v>1201.5999999999999</v>
       </c>
       <c r="E10">
-        <v>16</v>
+        <v>1244.2</v>
       </c>
       <c r="F10">
-        <v>19</v>
+        <v>1301.0999999999999</v>
       </c>
       <c r="G10">
-        <v>21.4</v>
+        <v>1352.2</v>
       </c>
       <c r="H10">
-        <v>23.4</v>
+        <v>1434.5</v>
       </c>
       <c r="I10">
-        <v>29.5</v>
+        <v>1443</v>
       </c>
       <c r="J10">
-        <v>30.9</v>
+        <v>1489.8</v>
       </c>
       <c r="K10">
-        <v>36.9</v>
+        <v>1530.7</v>
       </c>
       <c r="L10">
-        <v>39.700000000000003</v>
+        <v>1554</v>
       </c>
       <c r="M10">
-        <v>44</v>
+        <v>1583.8</v>
       </c>
       <c r="N10">
-        <v>46.3</v>
+        <v>1630.5</v>
       </c>
       <c r="O10">
-        <v>49</v>
+        <v>1660.9</v>
       </c>
       <c r="P10">
-        <v>54.7</v>
+        <v>1685.9</v>
       </c>
       <c r="Q10">
-        <v>59.9</v>
+        <v>1707.8</v>
       </c>
       <c r="R10">
-        <v>62.5</v>
+        <v>1748</v>
       </c>
       <c r="S10">
-        <v>67.3</v>
+        <v>1767.8</v>
       </c>
       <c r="T10">
-        <v>71.2</v>
+        <v>1790.4</v>
       </c>
       <c r="U10">
-        <v>75.900000000000006</v>
+        <v>1805.7</v>
       </c>
       <c r="V10">
-        <v>78.599999999999994</v>
+        <v>1846.1</v>
       </c>
       <c r="W10">
-        <v>83.2</v>
+        <v>1868.8</v>
       </c>
       <c r="X10">
-        <v>88.7</v>
+        <v>1863.6</v>
       </c>
       <c r="Y10">
-        <v>92.2</v>
+        <v>1907.4</v>
       </c>
       <c r="Z10">
-        <v>94.6</v>
+        <v>1940.8</v>
       </c>
       <c r="AA10">
-        <v>98.7</v>
+        <v>1951.5</v>
       </c>
       <c r="AB10">
-        <v>102.3</v>
+        <v>1985.5</v>
       </c>
       <c r="AC10">
-        <v>107.2</v>
+        <v>1997.8</v>
       </c>
       <c r="AD10">
-        <v>114.4</v>
+        <v>1993</v>
       </c>
       <c r="AE10">
-        <v>115.4</v>
+        <v>2050.1999999999998</v>
       </c>
       <c r="AF10">
-        <v>121.1</v>
+        <v>2065.5</v>
       </c>
       <c r="AG10">
-        <v>125</v>
+        <v>2068.8000000000002</v>
       </c>
       <c r="AH10">
-        <v>129.80000000000001</v>
+        <v>2087.3000000000002</v>
       </c>
       <c r="AI10">
-        <v>132.4</v>
+        <v>2122</v>
       </c>
       <c r="AJ10">
-        <v>134.5</v>
+        <v>2139.4</v>
       </c>
       <c r="AK10">
-        <v>142.19999999999999</v>
+        <v>2175.8000000000002</v>
       </c>
       <c r="AL10">
-        <v>143.4</v>
+        <v>2224.6999999999998</v>
       </c>
       <c r="AM10">
-        <v>148.5</v>
+        <v>2201</v>
       </c>
       <c r="AN10">
-        <v>153.6</v>
+        <v>2240.3000000000002</v>
       </c>
       <c r="AO10">
-        <v>159.1</v>
+        <v>2224.8000000000002</v>
       </c>
       <c r="AP10">
-        <v>161.30000000000001</v>
+        <v>2252.4</v>
       </c>
       <c r="AQ10">
-        <v>167.5</v>
+        <v>2269.1999999999998</v>
       </c>
       <c r="AR10">
-        <v>170.3</v>
+        <v>2318.6</v>
       </c>
       <c r="AS10">
-        <v>175.7</v>
+        <v>2322.1</v>
       </c>
       <c r="AT10">
-        <v>180.2</v>
+        <v>2324.5</v>
       </c>
       <c r="AU10">
-        <v>183.8</v>
+        <v>2351.4</v>
       </c>
       <c r="AV10">
-        <v>191.6</v>
+        <v>2345</v>
       </c>
       <c r="AW10">
-        <v>191.2</v>
+        <v>2387.8000000000002</v>
       </c>
       <c r="AX10">
-        <v>199.6</v>
+        <v>2375.4</v>
       </c>
       <c r="AY10">
-        <v>200.7</v>
+        <v>2430.1999999999998</v>
       </c>
       <c r="AZ10">
-        <v>209.7</v>
+        <v>2399.8000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.35">
       <c r="B11">
-        <v>15.2</v>
+        <v>7.6</v>
       </c>
       <c r="C11">
-        <v>16.18181818</v>
+        <v>8.9</v>
       </c>
       <c r="D11">
-        <v>20.333333329999999</v>
+        <v>12.2</v>
       </c>
       <c r="E11">
-        <v>24.61538462</v>
+        <v>16</v>
       </c>
       <c r="F11">
-        <v>27.14285714</v>
+        <v>19</v>
       </c>
       <c r="G11">
-        <v>28.533333330000001</v>
+        <v>21.4</v>
       </c>
       <c r="H11">
-        <v>29.25</v>
+        <v>23.4</v>
       </c>
       <c r="I11">
-        <v>34.705882350000003</v>
+        <v>29.5</v>
       </c>
       <c r="J11">
-        <v>34.333333330000002</v>
+        <v>30.9</v>
       </c>
       <c r="K11">
-        <v>38.842105259999997</v>
+        <v>36.9</v>
       </c>
       <c r="L11">
         <v>39.700000000000003</v>
       </c>
       <c r="M11">
-        <v>41.904761899999997</v>
+        <v>44</v>
       </c>
       <c r="N11">
-        <v>42.090909089999997</v>
+        <v>46.3</v>
       </c>
       <c r="O11">
-        <v>42.608695650000001</v>
+        <v>49</v>
       </c>
       <c r="P11">
-        <v>45.583333330000002</v>
+        <v>54.7</v>
       </c>
       <c r="Q11">
-        <v>47.92</v>
+        <v>59.9</v>
       </c>
       <c r="R11">
-        <v>48.07692308</v>
+        <v>62.5</v>
       </c>
       <c r="S11">
-        <v>49.851851850000003</v>
+        <v>67.3</v>
       </c>
       <c r="T11">
-        <v>50.857142860000003</v>
+        <v>71.2</v>
       </c>
       <c r="U11">
-        <v>52.344827590000001</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="V11">
-        <v>52.4</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="W11">
-        <v>53.677419350000001</v>
+        <v>83.2</v>
       </c>
       <c r="X11">
-        <v>55.4375</v>
+        <v>88.7</v>
       </c>
       <c r="Y11">
-        <v>55.878787879999997</v>
+        <v>92.2</v>
       </c>
       <c r="Z11">
-        <v>55.647058819999998</v>
+        <v>94.6</v>
       </c>
       <c r="AA11">
-        <v>56.4</v>
+        <v>98.7</v>
       </c>
       <c r="AB11">
-        <v>56.833333330000002</v>
+        <v>102.3</v>
       </c>
       <c r="AC11">
-        <v>57.945945950000002</v>
+        <v>107.2</v>
       </c>
       <c r="AD11">
-        <v>60.21052632</v>
+        <v>114.4</v>
       </c>
       <c r="AE11">
-        <v>59.179487180000002</v>
+        <v>115.4</v>
       </c>
       <c r="AF11">
-        <v>60.55</v>
+        <v>121.1</v>
       </c>
       <c r="AG11">
-        <v>60.975609759999998</v>
+        <v>125</v>
       </c>
       <c r="AH11">
-        <v>61.809523810000002</v>
+        <v>129.80000000000001</v>
       </c>
       <c r="AI11">
-        <v>61.581395350000001</v>
+        <v>132.4</v>
       </c>
       <c r="AJ11">
-        <v>61.136363639999999</v>
+        <v>134.5</v>
       </c>
       <c r="AK11">
-        <v>63.2</v>
+        <v>142.19999999999999</v>
       </c>
       <c r="AL11">
-        <v>62.347826089999998</v>
+        <v>143.4</v>
       </c>
       <c r="AM11">
-        <v>63.191489359999998</v>
+        <v>148.5</v>
       </c>
       <c r="AN11">
-        <v>64</v>
+        <v>153.6</v>
       </c>
       <c r="AO11">
-        <v>64.938775509999999</v>
+        <v>159.1</v>
       </c>
       <c r="AP11">
-        <v>64.52</v>
+        <v>161.30000000000001</v>
       </c>
       <c r="AQ11">
-        <v>65.686274510000004</v>
+        <v>167.5</v>
       </c>
       <c r="AR11">
-        <v>65.5</v>
+        <v>170.3</v>
       </c>
       <c r="AS11">
-        <v>66.301886789999998</v>
+        <v>175.7</v>
       </c>
       <c r="AT11">
-        <v>66.740740740000007</v>
+        <v>180.2</v>
       </c>
       <c r="AU11">
-        <v>66.836363640000002</v>
+        <v>183.8</v>
       </c>
       <c r="AV11">
-        <v>68.428571430000005</v>
+        <v>191.6</v>
       </c>
       <c r="AW11">
-        <v>67.087719300000003</v>
+        <v>191.2</v>
       </c>
       <c r="AX11">
-        <v>68.827586210000007</v>
+        <v>199.6</v>
       </c>
       <c r="AY11">
-        <v>68.033898309999998</v>
+        <v>200.7</v>
       </c>
       <c r="AZ11">
-        <v>69.900000000000006</v>
+        <v>209.7</v>
       </c>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.35">
       <c r="B12">
+        <v>15.2</v>
+      </c>
+      <c r="C12">
+        <v>16.18181818</v>
+      </c>
+      <c r="D12">
+        <v>20.333333329999999</v>
+      </c>
+      <c r="E12">
+        <v>24.61538462</v>
+      </c>
+      <c r="F12">
+        <v>27.14285714</v>
+      </c>
+      <c r="G12">
+        <v>28.533333330000001</v>
+      </c>
+      <c r="H12">
+        <v>29.25</v>
+      </c>
+      <c r="I12">
+        <v>34.705882350000003</v>
+      </c>
+      <c r="J12">
+        <v>34.333333330000002</v>
+      </c>
+      <c r="K12">
+        <v>38.842105259999997</v>
+      </c>
+      <c r="L12">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="M12">
+        <v>41.904761899999997</v>
+      </c>
+      <c r="N12">
+        <v>42.090909089999997</v>
+      </c>
+      <c r="O12">
+        <v>42.608695650000001</v>
+      </c>
+      <c r="P12">
+        <v>45.583333330000002</v>
+      </c>
+      <c r="Q12">
+        <v>47.92</v>
+      </c>
+      <c r="R12">
+        <v>48.07692308</v>
+      </c>
+      <c r="S12">
+        <v>49.851851850000003</v>
+      </c>
+      <c r="T12">
+        <v>50.857142860000003</v>
+      </c>
+      <c r="U12">
+        <v>52.344827590000001</v>
+      </c>
+      <c r="V12">
+        <v>52.4</v>
+      </c>
+      <c r="W12">
+        <v>53.677419350000001</v>
+      </c>
+      <c r="X12">
+        <v>55.4375</v>
+      </c>
+      <c r="Y12">
+        <v>55.878787879999997</v>
+      </c>
+      <c r="Z12">
+        <v>55.647058819999998</v>
+      </c>
+      <c r="AA12">
+        <v>56.4</v>
+      </c>
+      <c r="AB12">
+        <v>56.833333330000002</v>
+      </c>
+      <c r="AC12">
+        <v>57.945945950000002</v>
+      </c>
+      <c r="AD12">
+        <v>60.21052632</v>
+      </c>
+      <c r="AE12">
+        <v>59.179487180000002</v>
+      </c>
+      <c r="AF12">
+        <v>60.55</v>
+      </c>
+      <c r="AG12">
+        <v>60.975609759999998</v>
+      </c>
+      <c r="AH12">
+        <v>61.809523810000002</v>
+      </c>
+      <c r="AI12">
+        <v>61.581395350000001</v>
+      </c>
+      <c r="AJ12">
+        <v>61.136363639999999</v>
+      </c>
+      <c r="AK12">
+        <v>63.2</v>
+      </c>
+      <c r="AL12">
+        <v>62.347826089999998</v>
+      </c>
+      <c r="AM12">
+        <v>63.191489359999998</v>
+      </c>
+      <c r="AN12">
+        <v>64</v>
+      </c>
+      <c r="AO12">
+        <v>64.938775509999999</v>
+      </c>
+      <c r="AP12">
+        <v>64.52</v>
+      </c>
+      <c r="AQ12">
+        <v>65.686274510000004</v>
+      </c>
+      <c r="AR12">
+        <v>65.5</v>
+      </c>
+      <c r="AS12">
+        <v>66.301886789999998</v>
+      </c>
+      <c r="AT12">
+        <v>66.740740740000007</v>
+      </c>
+      <c r="AU12">
+        <v>66.836363640000002</v>
+      </c>
+      <c r="AV12">
+        <v>68.428571430000005</v>
+      </c>
+      <c r="AW12">
+        <v>67.087719300000003</v>
+      </c>
+      <c r="AX12">
+        <v>68.827586210000007</v>
+      </c>
+      <c r="AY12">
+        <v>68.033898309999998</v>
+      </c>
+      <c r="AZ12">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="B13">
         <v>42.4</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>46.1</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>47.8</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>49</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>51</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>53.6</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>56.6</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>55.5</v>
       </c>
-      <c r="J12">
+      <c r="J13">
         <v>59.1</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <v>58.1</v>
       </c>
-      <c r="L12">
+      <c r="L13">
         <v>60.3</v>
       </c>
-      <c r="M12">
+      <c r="M13">
         <v>61</v>
       </c>
-      <c r="N12">
+      <c r="N13">
         <v>63.7</v>
       </c>
-      <c r="O12">
+      <c r="O13">
         <v>66</v>
       </c>
-      <c r="P12">
+      <c r="P13">
         <v>65.3</v>
       </c>
-      <c r="Q12">
+      <c r="Q13">
         <v>65.099999999999994</v>
       </c>
-      <c r="R12">
+      <c r="R13">
         <v>67.5</v>
       </c>
-      <c r="S12">
+      <c r="S13">
         <v>67.7</v>
       </c>
-      <c r="T12">
+      <c r="T13">
         <v>68.8</v>
       </c>
-      <c r="U12">
+      <c r="U13">
         <v>69.099999999999994</v>
       </c>
-      <c r="V12">
+      <c r="V13">
         <v>71.400000000000006</v>
       </c>
-      <c r="W12">
+      <c r="W13">
         <v>71.8</v>
       </c>
-      <c r="X12">
+      <c r="X13">
         <v>71.3</v>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <v>72.8</v>
       </c>
-      <c r="Z12">
+      <c r="Z13">
         <v>75.400000000000006</v>
       </c>
-      <c r="AA12">
+      <c r="AA13">
         <v>76.3</v>
       </c>
-      <c r="AB12">
+      <c r="AB13">
         <v>77.7</v>
       </c>
-      <c r="AC12">
+      <c r="AC13">
         <v>77.8</v>
       </c>
-      <c r="AD12">
+      <c r="AD13">
         <v>75.599999999999994</v>
       </c>
-      <c r="AE12">
+      <c r="AE13">
         <v>79.599999999999994</v>
       </c>
-      <c r="AF12">
+      <c r="AF13">
         <v>78.900000000000006</v>
       </c>
-      <c r="AG12">
+      <c r="AG13">
         <v>80</v>
       </c>
-      <c r="AH12">
+      <c r="AH13">
         <v>80.2</v>
       </c>
-      <c r="AI12">
+      <c r="AI13">
         <v>82.6</v>
       </c>
-      <c r="AJ12">
+      <c r="AJ13">
         <v>85.5</v>
       </c>
-      <c r="AK12">
+      <c r="AK13">
         <v>82.8</v>
       </c>
-      <c r="AL12">
+      <c r="AL13">
         <v>86.6</v>
       </c>
-      <c r="AM12">
+      <c r="AM13">
         <v>86.5</v>
       </c>
-      <c r="AN12">
+      <c r="AN13">
         <v>86.4</v>
       </c>
-      <c r="AO12">
+      <c r="AO13">
         <v>85.9</v>
       </c>
-      <c r="AP12">
+      <c r="AP13">
         <v>88.7</v>
       </c>
-      <c r="AQ12">
+      <c r="AQ13">
         <v>87.5</v>
       </c>
-      <c r="AR12">
+      <c r="AR13">
         <v>89.7</v>
       </c>
-      <c r="AS12">
+      <c r="AS13">
         <v>89.3</v>
       </c>
-      <c r="AT12">
+      <c r="AT13">
         <v>89.8</v>
       </c>
-      <c r="AU12">
+      <c r="AU13">
         <v>91.2</v>
       </c>
-      <c r="AV12">
+      <c r="AV13">
         <v>88.4</v>
       </c>
-      <c r="AW12">
+      <c r="AW13">
         <v>93.8</v>
       </c>
-      <c r="AX12">
+      <c r="AX13">
         <v>90.4</v>
       </c>
-      <c r="AY12">
+      <c r="AY13">
         <v>94.3</v>
       </c>
-      <c r="AZ12">
+      <c r="AZ13">
         <v>90.3</v>
       </c>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.35">
       <c r="B14">
-        <v>50</v>
+        <f>B10/B13</f>
+        <v>25.492924528301891</v>
       </c>
       <c r="C14">
-        <v>55</v>
+        <f t="shared" ref="C14:AZ14" si="1">C10/C13</f>
+        <v>24.522776572668111</v>
       </c>
       <c r="D14">
-        <v>60</v>
+        <f t="shared" si="1"/>
+        <v>25.13807531380753</v>
       </c>
       <c r="E14">
-        <v>65</v>
+        <f t="shared" si="1"/>
+        <v>25.391836734693879</v>
       </c>
       <c r="F14">
-        <v>70</v>
+        <f t="shared" si="1"/>
+        <v>25.511764705882353</v>
       </c>
       <c r="G14">
-        <v>75</v>
+        <f t="shared" si="1"/>
+        <v>25.227611940298509</v>
       </c>
       <c r="H14">
-        <v>80</v>
+        <f t="shared" si="1"/>
+        <v>25.344522968197879</v>
       </c>
       <c r="I14">
-        <v>85</v>
+        <f t="shared" si="1"/>
+        <v>26</v>
       </c>
       <c r="J14">
-        <v>90</v>
+        <f t="shared" si="1"/>
+        <v>25.208121827411166</v>
       </c>
       <c r="K14">
-        <v>95</v>
+        <f t="shared" si="1"/>
+        <v>26.345955249569709</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>25.771144278606965</v>
       </c>
       <c r="M14">
-        <v>105</v>
+        <f t="shared" si="1"/>
+        <v>25.963934426229507</v>
       </c>
       <c r="N14">
-        <v>110</v>
+        <f t="shared" si="1"/>
+        <v>25.596546310832025</v>
       </c>
       <c r="O14">
-        <v>115</v>
+        <f t="shared" si="1"/>
+        <v>25.165151515151518</v>
       </c>
       <c r="P14">
-        <v>120</v>
+        <f t="shared" si="1"/>
+        <v>25.817764165390507</v>
       </c>
       <c r="Q14">
-        <v>125</v>
+        <f t="shared" si="1"/>
+        <v>26.233486943164365</v>
       </c>
       <c r="R14">
-        <v>130</v>
+        <f t="shared" si="1"/>
+        <v>25.896296296296295</v>
       </c>
       <c r="S14">
-        <v>135</v>
+        <f t="shared" si="1"/>
+        <v>26.112259970457902</v>
       </c>
       <c r="T14">
-        <v>140</v>
+        <f t="shared" si="1"/>
+        <v>26.02325581395349</v>
       </c>
       <c r="U14">
-        <v>145</v>
+        <f t="shared" si="1"/>
+        <v>26.131693198263388</v>
       </c>
       <c r="V14">
-        <v>150</v>
+        <f t="shared" si="1"/>
+        <v>25.855742296918763</v>
       </c>
       <c r="W14">
-        <v>155</v>
+        <f t="shared" si="1"/>
+        <v>26.027855153203344</v>
       </c>
       <c r="X14">
-        <v>160</v>
+        <f t="shared" si="1"/>
+        <v>26.137447405329592</v>
       </c>
       <c r="Y14">
-        <v>165</v>
+        <f t="shared" si="1"/>
+        <v>26.200549450549453</v>
       </c>
       <c r="Z14">
-        <v>170</v>
+        <f t="shared" si="1"/>
+        <v>25.740053050397876</v>
       </c>
       <c r="AA14">
-        <v>175</v>
+        <f t="shared" si="1"/>
+        <v>25.576671035386632</v>
       </c>
       <c r="AB14">
-        <v>180</v>
+        <f t="shared" si="1"/>
+        <v>25.553410553410554</v>
       </c>
       <c r="AC14">
-        <v>185</v>
+        <f t="shared" si="1"/>
+        <v>25.678663239074549</v>
       </c>
       <c r="AD14">
-        <v>190</v>
+        <f t="shared" si="1"/>
+        <v>26.362433862433864</v>
       </c>
       <c r="AE14">
-        <v>195</v>
+        <f t="shared" si="1"/>
+        <v>25.756281407035175</v>
       </c>
       <c r="AF14">
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>26.178707224334598</v>
       </c>
       <c r="AG14">
-        <v>205</v>
+        <f t="shared" si="1"/>
+        <v>25.860000000000003</v>
       </c>
       <c r="AH14">
-        <v>210</v>
+        <f t="shared" si="1"/>
+        <v>26.026184538653368</v>
       </c>
       <c r="AI14">
-        <v>215</v>
+        <f t="shared" si="1"/>
+        <v>25.690072639225182</v>
       </c>
       <c r="AJ14">
-        <v>220</v>
+        <f t="shared" si="1"/>
+        <v>25.022222222222222</v>
       </c>
       <c r="AK14">
-        <v>225</v>
+        <f t="shared" si="1"/>
+        <v>26.277777777777782</v>
       </c>
       <c r="AL14">
-        <v>230</v>
+        <f t="shared" si="1"/>
+        <v>25.689376443418013</v>
       </c>
       <c r="AM14">
-        <v>235</v>
+        <f t="shared" si="1"/>
+        <v>25.445086705202311</v>
       </c>
       <c r="AN14">
-        <v>240</v>
+        <f t="shared" si="1"/>
+        <v>25.929398148148149</v>
       </c>
       <c r="AO14">
-        <v>245</v>
+        <f t="shared" si="1"/>
+        <v>25.899883585564609</v>
       </c>
       <c r="AP14">
-        <v>250</v>
+        <f t="shared" si="1"/>
+        <v>25.393461104847802</v>
       </c>
       <c r="AQ14">
-        <v>255</v>
+        <f t="shared" si="1"/>
+        <v>25.933714285714284</v>
       </c>
       <c r="AR14">
-        <v>260</v>
+        <f t="shared" si="1"/>
+        <v>25.848383500557411</v>
       </c>
       <c r="AS14">
-        <v>265</v>
+        <f t="shared" si="1"/>
+        <v>26.003359462486003</v>
       </c>
       <c r="AT14">
-        <v>270</v>
+        <f t="shared" si="1"/>
+        <v>25.885300668151448</v>
       </c>
       <c r="AU14">
-        <v>275</v>
+        <f t="shared" si="1"/>
+        <v>25.782894736842106</v>
       </c>
       <c r="AV14">
-        <v>280</v>
+        <f t="shared" si="1"/>
+        <v>26.527149321266968</v>
       </c>
       <c r="AW14">
-        <v>285</v>
+        <f t="shared" si="1"/>
+        <v>25.45628997867804</v>
       </c>
       <c r="AX14">
-        <v>290</v>
+        <f t="shared" si="1"/>
+        <v>26.276548672566371</v>
       </c>
       <c r="AY14">
-        <v>295</v>
+        <f t="shared" si="1"/>
+        <v>25.770943796394484</v>
       </c>
       <c r="AZ14">
-        <v>300</v>
+        <f t="shared" si="1"/>
+        <v>26.575858250276859</v>
       </c>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="B15">
-        <v>858.3</v>
-      </c>
-      <c r="C15">
-        <v>872.3</v>
-      </c>
-      <c r="D15">
-        <v>878.7</v>
-      </c>
-      <c r="E15">
-        <v>887.5</v>
-      </c>
-      <c r="F15">
-        <v>888</v>
-      </c>
-      <c r="G15">
-        <v>892.4</v>
-      </c>
-      <c r="H15">
-        <v>895.5</v>
-      </c>
-      <c r="I15">
-        <v>903.9</v>
-      </c>
-      <c r="J15">
-        <v>945</v>
-      </c>
-      <c r="K15">
-        <v>927.6</v>
-      </c>
-      <c r="L15">
-        <v>944.3</v>
-      </c>
-      <c r="M15">
-        <v>967.2</v>
-      </c>
-      <c r="N15">
-        <v>980.1</v>
-      </c>
-      <c r="O15">
-        <v>1023.2</v>
-      </c>
-      <c r="P15">
-        <v>1072.9000000000001</v>
-      </c>
-      <c r="Q15">
-        <v>1109.9000000000001</v>
-      </c>
-      <c r="R15">
-        <v>1153.4000000000001</v>
-      </c>
-      <c r="S15">
-        <v>1172.9000000000001</v>
-      </c>
-      <c r="T15">
-        <v>1224.4000000000001</v>
-      </c>
-      <c r="U15">
-        <v>1241.4000000000001</v>
-      </c>
-      <c r="V15">
-        <v>1270.8</v>
-      </c>
-      <c r="W15">
-        <v>1284.8</v>
-      </c>
-      <c r="X15">
-        <v>1339.7</v>
-      </c>
-      <c r="Y15">
-        <v>1375.9</v>
-      </c>
-      <c r="Z15">
-        <v>1385.1</v>
-      </c>
-      <c r="AA15">
-        <v>1430.4</v>
-      </c>
-      <c r="AB15">
-        <v>1430.9</v>
-      </c>
-      <c r="AC15">
-        <v>1477.6</v>
-      </c>
-      <c r="AD15">
-        <v>1500.5</v>
-      </c>
-      <c r="AE15">
-        <v>1511.5</v>
-      </c>
-      <c r="AF15">
-        <v>1565.2</v>
-      </c>
-      <c r="AG15">
-        <v>1565.4</v>
-      </c>
-      <c r="AH15">
-        <v>1612.9</v>
-      </c>
-      <c r="AI15">
-        <v>1599.7</v>
-      </c>
-      <c r="AJ15">
-        <v>1618</v>
-      </c>
-      <c r="AK15">
-        <v>1652</v>
-      </c>
-      <c r="AL15">
-        <v>1674</v>
-      </c>
-      <c r="AM15">
-        <v>1690.8</v>
-      </c>
-      <c r="AN15">
-        <v>1705</v>
-      </c>
-      <c r="AO15">
-        <v>1713.6</v>
-      </c>
-      <c r="AP15">
-        <v>1778.9</v>
-      </c>
-      <c r="AQ15">
-        <v>1760.2</v>
-      </c>
-      <c r="AR15">
-        <v>1806.5</v>
-      </c>
-      <c r="AS15">
-        <v>1793.2</v>
-      </c>
-      <c r="AT15">
-        <v>1810.5</v>
-      </c>
-      <c r="AU15">
-        <v>1858.9</v>
-      </c>
-      <c r="AV15">
-        <v>1880.6</v>
-      </c>
-      <c r="AW15">
-        <v>1875.1</v>
-      </c>
-      <c r="AX15">
-        <v>1896.2</v>
-      </c>
-      <c r="AY15">
-        <v>1899.5</v>
-      </c>
-      <c r="AZ15">
-        <v>1912.2</v>
+      <c r="A15">
+        <f>AVERAGE(AF14:AZ14)</f>
+        <v>25.87964824106324</v>
       </c>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.35">
       <c r="B16">
+        <v>50</v>
+      </c>
+      <c r="C16">
+        <v>55</v>
+      </c>
+      <c r="D16">
+        <v>60</v>
+      </c>
+      <c r="E16">
+        <v>65</v>
+      </c>
+      <c r="F16">
+        <v>70</v>
+      </c>
+      <c r="G16">
+        <v>75</v>
+      </c>
+      <c r="H16">
+        <v>80</v>
+      </c>
+      <c r="I16">
+        <v>85</v>
+      </c>
+      <c r="J16">
+        <v>90</v>
+      </c>
+      <c r="K16">
+        <v>95</v>
+      </c>
+      <c r="L16">
+        <v>100</v>
+      </c>
+      <c r="M16">
+        <v>105</v>
+      </c>
+      <c r="N16">
+        <v>110</v>
+      </c>
+      <c r="O16">
+        <v>115</v>
+      </c>
+      <c r="P16">
+        <v>120</v>
+      </c>
+      <c r="Q16">
+        <v>125</v>
+      </c>
+      <c r="R16">
+        <v>130</v>
+      </c>
+      <c r="S16">
+        <v>135</v>
+      </c>
+      <c r="T16">
+        <v>140</v>
+      </c>
+      <c r="U16">
+        <v>145</v>
+      </c>
+      <c r="V16">
+        <v>150</v>
+      </c>
+      <c r="W16">
+        <v>155</v>
+      </c>
+      <c r="X16">
+        <v>160</v>
+      </c>
+      <c r="Y16">
+        <v>165</v>
+      </c>
+      <c r="Z16">
+        <v>170</v>
+      </c>
+      <c r="AA16">
+        <v>175</v>
+      </c>
+      <c r="AB16">
+        <v>180</v>
+      </c>
+      <c r="AC16">
+        <v>185</v>
+      </c>
+      <c r="AD16">
+        <v>190</v>
+      </c>
+      <c r="AE16">
+        <v>195</v>
+      </c>
+      <c r="AF16">
+        <v>200</v>
+      </c>
+      <c r="AG16">
+        <v>205</v>
+      </c>
+      <c r="AH16">
+        <v>210</v>
+      </c>
+      <c r="AI16">
+        <v>215</v>
+      </c>
+      <c r="AJ16">
+        <v>220</v>
+      </c>
+      <c r="AK16">
+        <v>225</v>
+      </c>
+      <c r="AL16">
+        <v>230</v>
+      </c>
+      <c r="AM16">
+        <v>235</v>
+      </c>
+      <c r="AN16">
+        <v>240</v>
+      </c>
+      <c r="AO16">
+        <v>245</v>
+      </c>
+      <c r="AP16">
+        <v>250</v>
+      </c>
+      <c r="AQ16">
+        <v>255</v>
+      </c>
+      <c r="AR16">
+        <v>260</v>
+      </c>
+      <c r="AS16">
+        <v>265</v>
+      </c>
+      <c r="AT16">
+        <v>270</v>
+      </c>
+      <c r="AU16">
+        <v>275</v>
+      </c>
+      <c r="AV16">
+        <v>280</v>
+      </c>
+      <c r="AW16">
+        <v>285</v>
+      </c>
+      <c r="AX16">
+        <v>290</v>
+      </c>
+      <c r="AY16">
+        <v>295</v>
+      </c>
+      <c r="AZ16">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>858.3</v>
+      </c>
+      <c r="C17">
+        <v>872.3</v>
+      </c>
+      <c r="D17">
+        <v>878.7</v>
+      </c>
+      <c r="E17">
+        <v>887.5</v>
+      </c>
+      <c r="F17">
+        <v>888</v>
+      </c>
+      <c r="G17">
+        <v>892.4</v>
+      </c>
+      <c r="H17">
+        <v>895.5</v>
+      </c>
+      <c r="I17">
+        <v>903.9</v>
+      </c>
+      <c r="J17">
+        <v>945</v>
+      </c>
+      <c r="K17">
+        <v>927.6</v>
+      </c>
+      <c r="L17">
+        <v>944.3</v>
+      </c>
+      <c r="M17">
+        <v>967.2</v>
+      </c>
+      <c r="N17">
+        <v>980.1</v>
+      </c>
+      <c r="O17">
+        <v>1023.2</v>
+      </c>
+      <c r="P17">
+        <v>1072.9000000000001</v>
+      </c>
+      <c r="Q17">
+        <v>1109.9000000000001</v>
+      </c>
+      <c r="R17">
+        <v>1153.4000000000001</v>
+      </c>
+      <c r="S17">
+        <v>1172.9000000000001</v>
+      </c>
+      <c r="T17">
+        <v>1224.4000000000001</v>
+      </c>
+      <c r="U17">
+        <v>1241.4000000000001</v>
+      </c>
+      <c r="V17">
+        <v>1270.8</v>
+      </c>
+      <c r="W17">
+        <v>1284.8</v>
+      </c>
+      <c r="X17">
+        <v>1339.7</v>
+      </c>
+      <c r="Y17">
+        <v>1375.9</v>
+      </c>
+      <c r="Z17">
+        <v>1385.1</v>
+      </c>
+      <c r="AA17">
+        <v>1430.4</v>
+      </c>
+      <c r="AB17">
+        <v>1430.9</v>
+      </c>
+      <c r="AC17">
+        <v>1477.6</v>
+      </c>
+      <c r="AD17">
+        <v>1500.5</v>
+      </c>
+      <c r="AE17">
+        <v>1511.5</v>
+      </c>
+      <c r="AF17">
+        <v>1565.2</v>
+      </c>
+      <c r="AG17">
+        <v>1565.4</v>
+      </c>
+      <c r="AH17">
+        <v>1612.9</v>
+      </c>
+      <c r="AI17">
+        <v>1599.7</v>
+      </c>
+      <c r="AJ17">
+        <v>1618</v>
+      </c>
+      <c r="AK17">
+        <v>1652</v>
+      </c>
+      <c r="AL17">
+        <v>1674</v>
+      </c>
+      <c r="AM17">
+        <v>1690.8</v>
+      </c>
+      <c r="AN17">
+        <v>1705</v>
+      </c>
+      <c r="AO17">
+        <v>1713.6</v>
+      </c>
+      <c r="AP17">
+        <v>1778.9</v>
+      </c>
+      <c r="AQ17">
+        <v>1760.2</v>
+      </c>
+      <c r="AR17">
+        <v>1806.5</v>
+      </c>
+      <c r="AS17">
+        <v>1793.2</v>
+      </c>
+      <c r="AT17">
+        <v>1810.5</v>
+      </c>
+      <c r="AU17">
+        <v>1858.9</v>
+      </c>
+      <c r="AV17">
+        <v>1880.6</v>
+      </c>
+      <c r="AW17">
+        <v>1875.1</v>
+      </c>
+      <c r="AX17">
+        <v>1896.2</v>
+      </c>
+      <c r="AY17">
+        <v>1899.5</v>
+      </c>
+      <c r="AZ17">
+        <v>1912.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="B18">
         <v>0</v>
       </c>
-      <c r="C16">
+      <c r="C18">
         <v>0</v>
       </c>
-      <c r="D16">
+      <c r="D18">
         <v>0</v>
       </c>
-      <c r="E16">
+      <c r="E18">
         <v>0</v>
       </c>
-      <c r="F16">
+      <c r="F18">
         <v>0</v>
       </c>
-      <c r="G16">
+      <c r="G18">
         <v>0</v>
       </c>
-      <c r="H16">
+      <c r="H18">
         <v>0</v>
       </c>
-      <c r="I16">
+      <c r="I18">
         <v>0</v>
       </c>
-      <c r="J16">
+      <c r="J18">
         <v>0</v>
       </c>
-      <c r="K16">
+      <c r="K18">
         <v>0</v>
       </c>
-      <c r="L16">
+      <c r="L18">
         <v>0</v>
       </c>
-      <c r="M16">
+      <c r="M18">
         <v>0</v>
       </c>
-      <c r="N16">
+      <c r="N18">
         <v>0</v>
       </c>
-      <c r="O16">
+      <c r="O18">
         <v>0</v>
       </c>
-      <c r="P16">
+      <c r="P18">
         <v>0</v>
       </c>
-      <c r="Q16">
+      <c r="Q18">
         <v>0.2</v>
       </c>
-      <c r="R16">
+      <c r="R18">
         <v>0.3</v>
       </c>
-      <c r="S16">
+      <c r="S18">
         <v>1</v>
       </c>
-      <c r="T16">
+      <c r="T18">
         <v>1.8</v>
       </c>
-      <c r="U16">
+      <c r="U18">
         <v>2.5</v>
       </c>
-      <c r="V16">
+      <c r="V18">
         <v>1.7</v>
       </c>
-      <c r="W16">
+      <c r="W18">
         <v>2.5</v>
       </c>
-      <c r="X16">
+      <c r="X18">
         <v>3.9</v>
       </c>
-      <c r="Y16">
+      <c r="Y18">
         <v>5.0999999999999996</v>
       </c>
-      <c r="Z16">
+      <c r="Z18">
         <v>8.5</v>
       </c>
-      <c r="AA16">
+      <c r="AA18">
         <v>6.7</v>
       </c>
-      <c r="AB16">
+      <c r="AB18">
         <v>11.1</v>
       </c>
-      <c r="AC16">
+      <c r="AC18">
         <v>11.5</v>
       </c>
-      <c r="AD16">
+      <c r="AD18">
         <v>13.9</v>
       </c>
-      <c r="AE16">
+      <c r="AE18">
         <v>17.8</v>
       </c>
-      <c r="AF16">
+      <c r="AF18">
         <v>15.2</v>
       </c>
-      <c r="AG16">
+      <c r="AG18">
         <v>19.7</v>
       </c>
-      <c r="AH16">
+      <c r="AH18">
         <v>21.7</v>
       </c>
-      <c r="AI16">
+      <c r="AI18">
         <v>26.9</v>
       </c>
-      <c r="AJ16">
+      <c r="AJ18">
         <v>24.4</v>
       </c>
-      <c r="AK16">
+      <c r="AK18">
         <v>28.6</v>
       </c>
-      <c r="AL16">
+      <c r="AL18">
         <v>30</v>
       </c>
-      <c r="AM16">
+      <c r="AM18">
         <v>34</v>
       </c>
-      <c r="AN16">
+      <c r="AN18">
         <v>35.1</v>
       </c>
-      <c r="AO16">
+      <c r="AO18">
         <v>39.200000000000003</v>
       </c>
-      <c r="AP16">
+      <c r="AP18">
         <v>41.9</v>
       </c>
-      <c r="AQ16">
+      <c r="AQ18">
         <v>42.6</v>
       </c>
-      <c r="AR16">
+      <c r="AR18">
         <v>44.1</v>
       </c>
-      <c r="AS16">
+      <c r="AS18">
         <v>49.1</v>
       </c>
-      <c r="AT16">
+      <c r="AT18">
         <v>53.9</v>
       </c>
-      <c r="AU16">
+      <c r="AU18">
         <v>53.6</v>
       </c>
-      <c r="AV16">
+      <c r="AV18">
         <v>56.9</v>
       </c>
-      <c r="AW16">
+      <c r="AW18">
         <v>63.6</v>
       </c>
-      <c r="AX16">
+      <c r="AX18">
         <v>67</v>
       </c>
-      <c r="AY16">
+      <c r="AY18">
         <v>67.3</v>
       </c>
-      <c r="AZ16">
+      <c r="AZ18">
         <v>70.599999999999994</v>
       </c>
     </row>
-    <row r="17" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B17">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="B19">
         <v>0</v>
       </c>
-      <c r="C17">
+      <c r="C19">
         <v>0</v>
       </c>
-      <c r="D17">
+      <c r="D19">
         <v>0</v>
       </c>
-      <c r="E17">
+      <c r="E19">
         <v>0</v>
       </c>
-      <c r="F17">
+      <c r="F19">
         <v>0</v>
       </c>
-      <c r="G17">
+      <c r="G19">
         <v>0</v>
       </c>
-      <c r="H17">
+      <c r="H19">
         <v>0</v>
       </c>
-      <c r="I17">
+      <c r="I19">
         <v>0</v>
       </c>
-      <c r="J17">
+      <c r="J19">
         <v>0</v>
       </c>
-      <c r="K17">
+      <c r="K19">
         <v>0</v>
       </c>
-      <c r="L17">
+      <c r="L19">
         <v>0</v>
       </c>
-      <c r="M17">
+      <c r="M19">
         <v>0</v>
       </c>
-      <c r="N17">
+      <c r="N19">
         <v>0</v>
       </c>
-      <c r="O17">
+      <c r="O19">
         <v>0</v>
       </c>
-      <c r="P17">
+      <c r="P19">
         <v>0</v>
       </c>
-      <c r="Q17">
+      <c r="Q19">
         <v>0.16</v>
       </c>
-      <c r="R17">
+      <c r="R19">
         <v>0.23076923099999999</v>
       </c>
-      <c r="S17">
+      <c r="S19">
         <v>0.74074074099999998</v>
       </c>
-      <c r="T17">
+      <c r="T19">
         <v>1.2857142859999999</v>
       </c>
-      <c r="U17">
+      <c r="U19">
         <v>1.724137931</v>
       </c>
-      <c r="V17">
+      <c r="V19">
         <v>1.1333333329999999</v>
       </c>
-      <c r="W17">
+      <c r="W19">
         <v>1.612903226</v>
       </c>
-      <c r="X17">
+      <c r="X19">
         <v>2.4375</v>
       </c>
-      <c r="Y17">
+      <c r="Y19">
         <v>3.0909090909999999</v>
       </c>
-      <c r="Z17">
+      <c r="Z19">
         <v>5</v>
       </c>
-      <c r="AA17">
+      <c r="AA19">
         <v>3.8285714290000001</v>
       </c>
-      <c r="AB17">
+      <c r="AB19">
         <v>6.1666666670000003</v>
       </c>
-      <c r="AC17">
+      <c r="AC19">
         <v>6.2162162160000003</v>
       </c>
-      <c r="AD17">
+      <c r="AD19">
         <v>7.3157894739999998</v>
       </c>
-      <c r="AE17">
+      <c r="AE19">
         <v>9.1282051279999994</v>
       </c>
-      <c r="AF17">
+      <c r="AF19">
         <v>7.6</v>
       </c>
-      <c r="AG17">
+      <c r="AG19">
         <v>9.6097560980000001</v>
       </c>
-      <c r="AH17">
+      <c r="AH19">
         <v>10.33333333</v>
       </c>
-      <c r="AI17">
+      <c r="AI19">
         <v>12.51162791</v>
       </c>
-      <c r="AJ17">
+      <c r="AJ19">
         <v>11.09090909</v>
       </c>
-      <c r="AK17">
+      <c r="AK19">
         <v>12.711111109999999</v>
       </c>
-      <c r="AL17">
+      <c r="AL19">
         <v>13.043478260000001</v>
       </c>
-      <c r="AM17">
+      <c r="AM19">
         <v>14.468085110000001</v>
       </c>
-      <c r="AN17">
+      <c r="AN19">
         <v>14.625</v>
       </c>
-      <c r="AO17">
+      <c r="AO19">
         <v>16</v>
       </c>
-      <c r="AP17">
+      <c r="AP19">
         <v>16.760000000000002</v>
       </c>
-      <c r="AQ17">
+      <c r="AQ19">
         <v>16.70588235</v>
       </c>
-      <c r="AR17">
+      <c r="AR19">
         <v>16.96153846</v>
       </c>
-      <c r="AS17">
+      <c r="AS19">
         <v>18.528301890000002</v>
       </c>
-      <c r="AT17">
+      <c r="AT19">
         <v>19.962962959999999</v>
       </c>
-      <c r="AU17">
+      <c r="AU19">
         <v>19.490909089999999</v>
       </c>
-      <c r="AV17">
+      <c r="AV19">
         <v>20.321428569999998</v>
       </c>
-      <c r="AW17">
+      <c r="AW19">
         <v>22.315789469999999</v>
       </c>
-      <c r="AX17">
+      <c r="AX19">
         <v>23.103448279999999</v>
       </c>
-      <c r="AY17">
+      <c r="AY19">
         <v>22.81355932</v>
       </c>
-      <c r="AZ17">
+      <c r="AZ19">
         <v>23.533333330000001</v>
       </c>
     </row>
-    <row r="18" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B18">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="B20">
         <v>50</v>
       </c>
-      <c r="C18">
+      <c r="C20">
         <v>55</v>
       </c>
-      <c r="D18">
+      <c r="D20">
         <v>60</v>
       </c>
-      <c r="E18">
+      <c r="E20">
         <v>65</v>
       </c>
-      <c r="F18">
+      <c r="F20">
         <v>70</v>
       </c>
-      <c r="G18">
+      <c r="G20">
         <v>75</v>
       </c>
-      <c r="H18">
+      <c r="H20">
         <v>80</v>
       </c>
-      <c r="I18">
+      <c r="I20">
         <v>85</v>
       </c>
-      <c r="J18">
+      <c r="J20">
         <v>90</v>
       </c>
-      <c r="K18">
+      <c r="K20">
         <v>95</v>
       </c>
-      <c r="L18">
+      <c r="L20">
         <v>100</v>
       </c>
-      <c r="M18">
+      <c r="M20">
         <v>105</v>
       </c>
-      <c r="N18">
+      <c r="N20">
         <v>110</v>
       </c>
-      <c r="O18">
+      <c r="O20">
         <v>115</v>
       </c>
-      <c r="P18">
+      <c r="P20">
         <v>120</v>
       </c>
-      <c r="Q18">
+      <c r="Q20">
         <v>124.8</v>
       </c>
-      <c r="R18">
+      <c r="R20">
         <v>129.69999999999999</v>
       </c>
-      <c r="S18">
+      <c r="S20">
         <v>134</v>
       </c>
-      <c r="T18">
+      <c r="T20">
         <v>138.19999999999999</v>
       </c>
-      <c r="U18">
+      <c r="U20">
         <v>142.5</v>
       </c>
-      <c r="V18">
+      <c r="V20">
         <v>148.30000000000001</v>
       </c>
-      <c r="W18">
+      <c r="W20">
         <v>152.5</v>
       </c>
-      <c r="X18">
+      <c r="X20">
         <v>156.1</v>
       </c>
-      <c r="Y18">
+      <c r="Y20">
         <v>159.9</v>
       </c>
-      <c r="Z18">
+      <c r="Z20">
         <v>161.5</v>
       </c>
-      <c r="AA18">
+      <c r="AA20">
         <v>168.3</v>
       </c>
-      <c r="AB18">
+      <c r="AB20">
         <v>168.9</v>
       </c>
-      <c r="AC18">
+      <c r="AC20">
         <v>173.5</v>
       </c>
-      <c r="AD18">
+      <c r="AD20">
         <v>176.1</v>
       </c>
-      <c r="AE18">
+      <c r="AE20">
         <v>177.2</v>
       </c>
-      <c r="AF18">
+      <c r="AF20">
         <v>184.8</v>
       </c>
-      <c r="AG18">
+      <c r="AG20">
         <v>185.3</v>
       </c>
-      <c r="AH18">
+      <c r="AH20">
         <v>188.3</v>
       </c>
-      <c r="AI18">
+      <c r="AI20">
         <v>188.1</v>
       </c>
-      <c r="AJ18">
+      <c r="AJ20">
         <v>195.6</v>
       </c>
-      <c r="AK18">
+      <c r="AK20">
         <v>196.4</v>
       </c>
-      <c r="AL18">
+      <c r="AL20">
         <v>200</v>
       </c>
-      <c r="AM18">
+      <c r="AM20">
         <v>201</v>
       </c>
-      <c r="AN18">
+      <c r="AN20">
         <v>204.9</v>
       </c>
-      <c r="AO18">
+      <c r="AO20">
         <v>205.8</v>
       </c>
-      <c r="AP18">
+      <c r="AP20">
         <v>208.1</v>
       </c>
-      <c r="AQ18">
+      <c r="AQ20">
         <v>212.4</v>
       </c>
-      <c r="AR18">
+      <c r="AR20">
         <v>215.9</v>
       </c>
-      <c r="AS18">
+      <c r="AS20">
         <v>215.9</v>
       </c>
-      <c r="AT18">
+      <c r="AT20">
         <v>216.1</v>
       </c>
-      <c r="AU18">
+      <c r="AU20">
         <v>221.4</v>
       </c>
-      <c r="AV18">
+      <c r="AV20">
         <v>223.1</v>
       </c>
-      <c r="AW18">
+      <c r="AW20">
         <v>221.4</v>
       </c>
-      <c r="AX18">
+      <c r="AX20">
         <v>223</v>
       </c>
-      <c r="AY18">
+      <c r="AY20">
         <v>227.7</v>
       </c>
-      <c r="AZ18">
+      <c r="AZ20">
         <v>229.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <f>B17/B20</f>
+        <v>17.166</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:AZ21" si="2">C17/C20</f>
+        <v>15.86</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>14.645000000000001</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>13.653846153846153</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>12.685714285714285</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>11.898666666666667</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>11.19375</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>10.634117647058824</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>10.5</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>9.7642105263157895</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>9.4429999999999996</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="2"/>
+        <v>9.2114285714285717</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="2"/>
+        <v>8.91</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="2"/>
+        <v>8.8973913043478259</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="2"/>
+        <v>8.9408333333333339</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="2"/>
+        <v>8.8934294871794872</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="2"/>
+        <v>8.8928296067848898</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="2"/>
+        <v>8.7529850746268671</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="2"/>
+        <v>8.8596237337192481</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="2"/>
+        <v>8.7115789473684213</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="2"/>
+        <v>8.5691166554281857</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="2"/>
+        <v>8.4249180327868842</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="2"/>
+        <v>8.5823190262652158</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="2"/>
+        <v>8.6047529706066292</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="2"/>
+        <v>8.5764705882352938</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="2"/>
+        <v>8.4991087344028529</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="2"/>
+        <v>8.4718768502072237</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="2"/>
+        <v>8.5164265129682999</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="2"/>
+        <v>8.5207268597387849</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="2"/>
+        <v>8.5299097065462757</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="2"/>
+        <v>8.4696969696969688</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="2"/>
+        <v>8.4479222881813278</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="2"/>
+        <v>8.5655868295273496</v>
+      </c>
+      <c r="AI21">
+        <f t="shared" si="2"/>
+        <v>8.5045188729399257</v>
+      </c>
+      <c r="AJ21">
+        <f t="shared" si="2"/>
+        <v>8.2719836400817996</v>
+      </c>
+      <c r="AK21">
+        <f t="shared" si="2"/>
+        <v>8.4114052953156815</v>
+      </c>
+      <c r="AL21">
+        <f t="shared" si="2"/>
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="AM21">
+        <f t="shared" si="2"/>
+        <v>8.4119402985074618</v>
+      </c>
+      <c r="AN21">
+        <f t="shared" si="2"/>
+        <v>8.3211322596388477</v>
+      </c>
+      <c r="AO21">
+        <f t="shared" si="2"/>
+        <v>8.3265306122448965</v>
+      </c>
+      <c r="AP21">
+        <f t="shared" si="2"/>
+        <v>8.5482940893801072</v>
+      </c>
+      <c r="AQ21">
+        <f t="shared" si="2"/>
+        <v>8.2871939736346523</v>
+      </c>
+      <c r="AR21">
+        <f t="shared" si="2"/>
+        <v>8.367299675775822</v>
+      </c>
+      <c r="AS21">
+        <f t="shared" si="2"/>
+        <v>8.3056970819823999</v>
+      </c>
+      <c r="AT21">
+        <f t="shared" si="2"/>
+        <v>8.3780657103192961</v>
+      </c>
+      <c r="AU21">
+        <f t="shared" si="2"/>
+        <v>8.3961156278229456</v>
+      </c>
+      <c r="AV21">
+        <f t="shared" si="2"/>
+        <v>8.4294038547736445</v>
+      </c>
+      <c r="AW21">
+        <f t="shared" si="2"/>
+        <v>8.4692863595302619</v>
+      </c>
+      <c r="AX21">
+        <f t="shared" si="2"/>
+        <v>8.5031390134529143</v>
+      </c>
+      <c r="AY21">
+        <f t="shared" si="2"/>
+        <v>8.3421168203776901</v>
+      </c>
+      <c r="AZ21">
+        <f t="shared" si="2"/>
+        <v>8.3356582388840454</v>
+      </c>
+    </row>
+    <row r="22" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <f>AVERAGE(AF21:AZ21)</f>
+        <v>8.4029994053365726</v>
+      </c>
+    </row>
+    <row r="23" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>50</v>
+      </c>
+      <c r="C23">
+        <v>55</v>
+      </c>
+      <c r="D23">
+        <v>60</v>
+      </c>
+      <c r="E23">
+        <v>65</v>
+      </c>
+      <c r="F23">
+        <v>70</v>
+      </c>
+      <c r="G23">
+        <v>75</v>
+      </c>
+      <c r="H23">
+        <v>80</v>
+      </c>
+      <c r="I23">
+        <v>85</v>
+      </c>
+      <c r="J23">
+        <v>90</v>
+      </c>
+      <c r="K23">
+        <v>95</v>
+      </c>
+      <c r="L23">
+        <v>100</v>
+      </c>
+      <c r="M23">
+        <v>105</v>
+      </c>
+      <c r="N23">
+        <v>110</v>
+      </c>
+      <c r="O23">
+        <v>115</v>
+      </c>
+      <c r="P23">
+        <v>120</v>
+      </c>
+      <c r="Q23">
+        <v>125</v>
+      </c>
+      <c r="R23">
+        <v>130</v>
+      </c>
+      <c r="S23">
+        <v>135</v>
+      </c>
+      <c r="T23">
+        <v>140</v>
+      </c>
+      <c r="U23">
+        <v>145</v>
+      </c>
+      <c r="V23">
+        <v>150</v>
+      </c>
+      <c r="W23">
+        <v>155</v>
+      </c>
+      <c r="X23">
+        <v>160</v>
+      </c>
+      <c r="Y23">
+        <v>165</v>
+      </c>
+      <c r="Z23">
+        <v>170</v>
+      </c>
+      <c r="AA23">
+        <v>175</v>
+      </c>
+      <c r="AB23">
+        <v>180</v>
+      </c>
+      <c r="AC23">
+        <v>185</v>
+      </c>
+      <c r="AD23">
+        <v>190</v>
+      </c>
+      <c r="AE23">
+        <v>195</v>
+      </c>
+      <c r="AF23">
+        <v>200</v>
+      </c>
+      <c r="AG23">
+        <v>205</v>
+      </c>
+      <c r="AH23">
+        <v>210</v>
+      </c>
+      <c r="AI23">
+        <v>215</v>
+      </c>
+      <c r="AJ23">
+        <v>220</v>
+      </c>
+      <c r="AK23">
+        <v>225</v>
+      </c>
+      <c r="AL23">
+        <v>230</v>
+      </c>
+      <c r="AM23">
+        <v>235</v>
+      </c>
+      <c r="AN23">
+        <v>240</v>
+      </c>
+      <c r="AO23">
+        <v>245</v>
+      </c>
+      <c r="AP23">
+        <v>250</v>
+      </c>
+      <c r="AQ23">
+        <v>255</v>
+      </c>
+      <c r="AR23">
+        <v>260</v>
+      </c>
+      <c r="AS23">
+        <v>265</v>
+      </c>
+      <c r="AT23">
+        <v>270</v>
+      </c>
+      <c r="AU23">
+        <v>275</v>
+      </c>
+      <c r="AV23">
+        <v>280</v>
+      </c>
+      <c r="AW23">
+        <v>285</v>
+      </c>
+      <c r="AX23">
+        <v>290</v>
+      </c>
+      <c r="AY23">
+        <v>295</v>
+      </c>
+      <c r="AZ23">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>636</v>
+      </c>
+      <c r="C24">
+        <v>694.2</v>
+      </c>
+      <c r="D24">
+        <v>736</v>
+      </c>
+      <c r="E24">
+        <v>764.9</v>
+      </c>
+      <c r="F24">
+        <v>820.9</v>
+      </c>
+      <c r="G24">
+        <v>829.9</v>
+      </c>
+      <c r="H24">
+        <v>877.9</v>
+      </c>
+      <c r="I24">
+        <v>892.3</v>
+      </c>
+      <c r="J24">
+        <v>932.8</v>
+      </c>
+      <c r="K24">
+        <v>958.4</v>
+      </c>
+      <c r="L24">
+        <v>1003.5</v>
+      </c>
+      <c r="M24">
+        <v>1030</v>
+      </c>
+      <c r="N24">
+        <v>1068</v>
+      </c>
+      <c r="O24">
+        <v>1077.0999999999999</v>
+      </c>
+      <c r="P24">
+        <v>1091.0999999999999</v>
+      </c>
+      <c r="Q24">
+        <v>1131.5</v>
+      </c>
+      <c r="R24">
+        <v>1180</v>
+      </c>
+      <c r="S24">
+        <v>1181.0999999999999</v>
+      </c>
+      <c r="T24">
+        <v>1200.5</v>
+      </c>
+      <c r="U24">
+        <v>1202.3</v>
+      </c>
+      <c r="V24">
+        <v>1230.8</v>
+      </c>
+      <c r="W24">
+        <v>1274.8</v>
+      </c>
+      <c r="X24">
+        <v>1257.0999999999999</v>
+      </c>
+      <c r="Y24">
+        <v>1278.9000000000001</v>
+      </c>
+      <c r="Z24">
+        <v>1299.5999999999999</v>
+      </c>
+      <c r="AA24">
+        <v>1335.7</v>
+      </c>
+      <c r="AB24">
+        <v>1336.7</v>
+      </c>
+      <c r="AC24">
+        <v>1351.3</v>
+      </c>
+      <c r="AD24">
+        <v>1377.7</v>
+      </c>
+      <c r="AE24">
+        <v>1398.8</v>
+      </c>
+      <c r="AF24">
+        <v>1395.8</v>
+      </c>
+      <c r="AG24">
+        <v>1421.9</v>
+      </c>
+      <c r="AH24">
+        <v>1451.8</v>
+      </c>
+      <c r="AI24">
+        <v>1466.4</v>
+      </c>
+      <c r="AJ24">
+        <v>1486.9</v>
+      </c>
+      <c r="AK24">
+        <v>1492.7</v>
+      </c>
+      <c r="AL24">
+        <v>1484.8</v>
+      </c>
+      <c r="AM24">
+        <v>1489.1</v>
+      </c>
+      <c r="AN24">
+        <v>1523</v>
+      </c>
+      <c r="AO24">
+        <v>1526.8</v>
+      </c>
+      <c r="AP24">
+        <v>1576.4</v>
+      </c>
+      <c r="AQ24">
+        <v>1558.8</v>
+      </c>
+      <c r="AR24">
+        <v>1584.7</v>
+      </c>
+      <c r="AS24">
+        <v>1583.5</v>
+      </c>
+      <c r="AT24">
+        <v>1623.3</v>
+      </c>
+      <c r="AU24">
+        <v>1630.8</v>
+      </c>
+      <c r="AV24">
+        <v>1624.7</v>
+      </c>
+      <c r="AW24">
+        <v>1660.4</v>
+      </c>
+      <c r="AX24">
+        <v>1639.9</v>
+      </c>
+      <c r="AY24">
+        <v>1674.6</v>
+      </c>
+      <c r="AZ24">
+        <v>1678.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C25">
+        <v>5.6</v>
+      </c>
+      <c r="D25">
+        <v>7.4</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <v>11.7</v>
+      </c>
+      <c r="G25">
+        <v>13.7</v>
+      </c>
+      <c r="H25">
+        <v>14</v>
+      </c>
+      <c r="I25">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="J25">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="K25">
+        <v>24.4</v>
+      </c>
+      <c r="L25">
+        <v>22.7</v>
+      </c>
+      <c r="M25">
+        <v>26.7</v>
+      </c>
+      <c r="N25">
+        <v>30</v>
+      </c>
+      <c r="O25">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="P25">
+        <v>35</v>
+      </c>
+      <c r="Q25">
+        <v>38.5</v>
+      </c>
+      <c r="R25">
+        <v>42.9</v>
+      </c>
+      <c r="S25">
+        <v>45.3</v>
+      </c>
+      <c r="T25">
+        <v>48.8</v>
+      </c>
+      <c r="U25">
+        <v>52.3</v>
+      </c>
+      <c r="V25">
+        <v>56.9</v>
+      </c>
+      <c r="W25">
+        <v>57.9</v>
+      </c>
+      <c r="X25">
+        <v>64.3</v>
+      </c>
+      <c r="Y25">
+        <v>68</v>
+      </c>
+      <c r="Z25">
+        <v>67.8</v>
+      </c>
+      <c r="AA25">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="AB25">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="AC25">
+        <v>83</v>
+      </c>
+      <c r="AD25">
+        <v>85.7</v>
+      </c>
+      <c r="AE25">
+        <v>89.1</v>
+      </c>
+      <c r="AF25">
+        <v>97</v>
+      </c>
+      <c r="AG25">
+        <v>96.2</v>
+      </c>
+      <c r="AH25">
+        <v>97.6</v>
+      </c>
+      <c r="AI25">
+        <v>104.1</v>
+      </c>
+      <c r="AJ25">
+        <v>105.7</v>
+      </c>
+      <c r="AK25">
+        <v>113.6</v>
+      </c>
+      <c r="AL25">
+        <v>117.2</v>
+      </c>
+      <c r="AM25">
+        <v>123.5</v>
+      </c>
+      <c r="AN25">
+        <v>125.6</v>
+      </c>
+      <c r="AO25">
+        <v>129.69999999999999</v>
+      </c>
+      <c r="AP25">
+        <v>134.69999999999999</v>
+      </c>
+      <c r="AQ25">
+        <v>138</v>
+      </c>
+      <c r="AR25">
+        <v>139.69999999999999</v>
+      </c>
+      <c r="AS25">
+        <v>146.5</v>
+      </c>
+      <c r="AT25">
+        <v>148.1</v>
+      </c>
+      <c r="AU25">
+        <v>152.5</v>
+      </c>
+      <c r="AV25">
+        <v>157</v>
+      </c>
+      <c r="AW25">
+        <v>158.30000000000001</v>
+      </c>
+      <c r="AX25">
+        <v>164.4</v>
+      </c>
+      <c r="AY25">
+        <v>166.9</v>
+      </c>
+      <c r="AZ25">
+        <v>173.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C26">
+        <v>10.18181818</v>
+      </c>
+      <c r="D26">
+        <v>12.33333333</v>
+      </c>
+      <c r="E26">
+        <v>12.30769231</v>
+      </c>
+      <c r="F26">
+        <v>16.714285709999999</v>
+      </c>
+      <c r="G26">
+        <v>18.266666669999999</v>
+      </c>
+      <c r="H26">
+        <v>17.5</v>
+      </c>
+      <c r="I26">
+        <v>21.29411765</v>
+      </c>
+      <c r="J26">
+        <v>21.777777780000001</v>
+      </c>
+      <c r="K26">
+        <v>25.684210530000001</v>
+      </c>
+      <c r="L26">
+        <v>22.7</v>
+      </c>
+      <c r="M26">
+        <v>25.428571430000002</v>
+      </c>
+      <c r="N26">
+        <v>27.272727270000001</v>
+      </c>
+      <c r="O26">
+        <v>28.086956520000001</v>
+      </c>
+      <c r="P26">
+        <v>29.166666670000001</v>
+      </c>
+      <c r="Q26">
+        <v>30.8</v>
+      </c>
+      <c r="R26">
+        <v>33</v>
+      </c>
+      <c r="S26">
+        <v>33.555555560000002</v>
+      </c>
+      <c r="T26">
+        <v>34.857142860000003</v>
+      </c>
+      <c r="U26">
+        <v>36.068965519999999</v>
+      </c>
+      <c r="V26">
+        <v>37.933333330000004</v>
+      </c>
+      <c r="W26">
+        <v>37.354838710000003</v>
+      </c>
+      <c r="X26">
+        <v>40.1875</v>
+      </c>
+      <c r="Y26">
+        <v>41.212121209999999</v>
+      </c>
+      <c r="Z26">
+        <v>39.882352939999997</v>
+      </c>
+      <c r="AA26">
+        <v>44.34285714</v>
+      </c>
+      <c r="AB26">
+        <v>43.833333330000002</v>
+      </c>
+      <c r="AC26">
+        <v>44.864864859999997</v>
+      </c>
+      <c r="AD26">
+        <v>45.10526316</v>
+      </c>
+      <c r="AE26">
+        <v>45.69230769</v>
+      </c>
+      <c r="AF26">
+        <v>48.5</v>
+      </c>
+      <c r="AG26">
+        <v>46.926829269999999</v>
+      </c>
+      <c r="AH26">
+        <v>46.47619048</v>
+      </c>
+      <c r="AI26">
+        <v>48.418604649999999</v>
+      </c>
+      <c r="AJ26">
+        <v>48.045454550000002</v>
+      </c>
+      <c r="AK26">
+        <v>50.488888889999998</v>
+      </c>
+      <c r="AL26">
+        <v>50.956521739999999</v>
+      </c>
+      <c r="AM26">
+        <v>52.553191490000003</v>
+      </c>
+      <c r="AN26">
+        <v>52.333333330000002</v>
+      </c>
+      <c r="AO26">
+        <v>52.938775509999999</v>
+      </c>
+      <c r="AP26">
+        <v>53.88</v>
+      </c>
+      <c r="AQ26">
+        <v>54.117647060000003</v>
+      </c>
+      <c r="AR26">
+        <v>53.73076923</v>
+      </c>
+      <c r="AS26">
+        <v>55.283018869999999</v>
+      </c>
+      <c r="AT26">
+        <v>54.851851850000003</v>
+      </c>
+      <c r="AU26">
+        <v>55.454545449999998</v>
+      </c>
+      <c r="AV26">
+        <v>56.071428570000002</v>
+      </c>
+      <c r="AW26">
+        <v>55.543859650000002</v>
+      </c>
+      <c r="AX26">
+        <v>56.689655170000002</v>
+      </c>
+      <c r="AY26">
+        <v>56.57627119</v>
+      </c>
+      <c r="AZ26">
+        <v>57.966666670000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>45.6</v>
+      </c>
+      <c r="C27">
+        <v>49.4</v>
+      </c>
+      <c r="D27">
+        <v>52.6</v>
+      </c>
+      <c r="E27">
+        <v>57</v>
+      </c>
+      <c r="F27">
+        <v>58.3</v>
+      </c>
+      <c r="G27">
+        <v>61.3</v>
+      </c>
+      <c r="H27">
+        <v>66</v>
+      </c>
+      <c r="I27">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="J27">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="K27">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="L27">
+        <v>77.3</v>
+      </c>
+      <c r="M27">
+        <v>78.3</v>
+      </c>
+      <c r="N27">
+        <v>80</v>
+      </c>
+      <c r="O27">
+        <v>82.7</v>
+      </c>
+      <c r="P27">
+        <v>85</v>
+      </c>
+      <c r="Q27">
+        <v>86.5</v>
+      </c>
+      <c r="R27">
+        <v>87.1</v>
+      </c>
+      <c r="S27">
+        <v>89.7</v>
+      </c>
+      <c r="T27">
+        <v>91.2</v>
+      </c>
+      <c r="U27">
+        <v>92.7</v>
+      </c>
+      <c r="V27">
+        <v>93.1</v>
+      </c>
+      <c r="W27">
+        <v>97.1</v>
+      </c>
+      <c r="X27">
+        <v>95.7</v>
+      </c>
+      <c r="Y27">
+        <v>97</v>
+      </c>
+      <c r="Z27">
+        <v>102.2</v>
+      </c>
+      <c r="AA27">
+        <v>97.4</v>
+      </c>
+      <c r="AB27">
+        <v>101.1</v>
+      </c>
+      <c r="AC27">
+        <v>102</v>
+      </c>
+      <c r="AD27">
+        <v>104.3</v>
+      </c>
+      <c r="AE27">
+        <v>105.9</v>
+      </c>
+      <c r="AF27">
+        <v>103</v>
+      </c>
+      <c r="AG27">
+        <v>108.8</v>
+      </c>
+      <c r="AH27">
+        <v>112.4</v>
+      </c>
+      <c r="AI27">
+        <v>110.9</v>
+      </c>
+      <c r="AJ27">
+        <v>114.3</v>
+      </c>
+      <c r="AK27">
+        <v>111.4</v>
+      </c>
+      <c r="AL27">
+        <v>112.8</v>
+      </c>
+      <c r="AM27">
+        <v>111.5</v>
+      </c>
+      <c r="AN27">
+        <v>114.4</v>
+      </c>
+      <c r="AO27">
+        <v>115.3</v>
+      </c>
+      <c r="AP27">
+        <v>115.3</v>
+      </c>
+      <c r="AQ27">
+        <v>117</v>
+      </c>
+      <c r="AR27">
+        <v>120.3</v>
+      </c>
+      <c r="AS27">
+        <v>118.5</v>
+      </c>
+      <c r="AT27">
+        <v>121.9</v>
+      </c>
+      <c r="AU27">
+        <v>122.5</v>
+      </c>
+      <c r="AV27">
+        <v>123</v>
+      </c>
+      <c r="AW27">
+        <v>126.7</v>
+      </c>
+      <c r="AX27">
+        <v>125.6</v>
+      </c>
+      <c r="AY27">
+        <v>128.1</v>
+      </c>
+      <c r="AZ27">
+        <v>126.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <f>B24/B27</f>
+        <v>13.947368421052632</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:AZ28" si="3">C24/C27</f>
+        <v>14.05263157894737</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="3"/>
+        <v>13.992395437262356</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>13.419298245614035</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>14.080617495711836</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>13.538336052202284</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>13.301515151515151</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>13.337817638266067</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>13.249999999999998</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="3"/>
+        <v>13.575070821529746</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="3"/>
+        <v>12.981888745148771</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="3"/>
+        <v>13.154533844189016</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="3"/>
+        <v>13.35</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="3"/>
+        <v>13.024183796856105</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="3"/>
+        <v>12.836470588235294</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="3"/>
+        <v>13.080924855491329</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="3"/>
+        <v>13.54764638346728</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="3"/>
+        <v>13.167224080267557</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="3"/>
+        <v>13.163377192982455</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="3"/>
+        <v>12.969795037756201</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="3"/>
+        <v>13.220193340494093</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="3"/>
+        <v>13.128733264675592</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="3"/>
+        <v>13.135841170323928</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="3"/>
+        <v>13.184536082474228</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="3"/>
+        <v>12.71624266144814</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="3"/>
+        <v>13.713552361396303</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="3"/>
+        <v>13.221562809099902</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="3"/>
+        <v>13.248039215686275</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="3"/>
+        <v>13.209012464046022</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="3"/>
+        <v>13.208687440982057</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="3"/>
+        <v>13.551456310679612</v>
+      </c>
+      <c r="AG28">
+        <f t="shared" si="3"/>
+        <v>13.068933823529413</v>
+      </c>
+      <c r="AH28">
+        <f t="shared" si="3"/>
+        <v>12.916370106761565</v>
+      </c>
+      <c r="AI28">
+        <f t="shared" si="3"/>
+        <v>13.222723174030659</v>
+      </c>
+      <c r="AJ28">
+        <f t="shared" si="3"/>
+        <v>13.008748906386703</v>
+      </c>
+      <c r="AK28">
+        <f t="shared" si="3"/>
+        <v>13.399461400359066</v>
+      </c>
+      <c r="AL28">
+        <f t="shared" si="3"/>
+        <v>13.163120567375886</v>
+      </c>
+      <c r="AM28">
+        <f t="shared" si="3"/>
+        <v>13.355156950672646</v>
+      </c>
+      <c r="AN28">
+        <f t="shared" si="3"/>
+        <v>13.312937062937062</v>
+      </c>
+      <c r="AO28">
+        <f t="shared" si="3"/>
+        <v>13.241977450130095</v>
+      </c>
+      <c r="AP28">
+        <f t="shared" si="3"/>
+        <v>13.672159583694711</v>
+      </c>
+      <c r="AQ28">
+        <f t="shared" si="3"/>
+        <v>13.323076923076922</v>
+      </c>
+      <c r="AR28">
+        <f t="shared" si="3"/>
+        <v>13.172901080631755</v>
+      </c>
+      <c r="AS28">
+        <f t="shared" si="3"/>
+        <v>13.362869198312236</v>
+      </c>
+      <c r="AT28">
+        <f t="shared" si="3"/>
+        <v>13.316652994257588</v>
+      </c>
+      <c r="AU28">
+        <f t="shared" si="3"/>
+        <v>13.31265306122449</v>
+      </c>
+      <c r="AV28">
+        <f t="shared" si="3"/>
+        <v>13.208943089430894</v>
+      </c>
+      <c r="AW28">
+        <f t="shared" si="3"/>
+        <v>13.104972375690608</v>
+      </c>
+      <c r="AX28">
+        <f t="shared" si="3"/>
+        <v>13.056528662420384</v>
+      </c>
+      <c r="AY28">
+        <f t="shared" si="3"/>
+        <v>13.072599531615925</v>
+      </c>
+      <c r="AZ28">
+        <f t="shared" si="3"/>
+        <v>13.312450436161777</v>
+      </c>
+    </row>
+    <row r="29" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <f>AVERAGE(AF28:AZ28)</f>
+        <v>13.245556794732382</v>
       </c>
     </row>
   </sheetData>
